--- a/設計想定ドキュメント/クラス図.xlsx
+++ b/設計想定ドキュメント/クラス図.xlsx
@@ -350,33 +350,6 @@
               <a:t>の作成および取得</a:t>
             </a:r>
             <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-          </a:p>
-          <a:p>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>・</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>CSV</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>ファイル作成先の設定、保存（データマネージャーですべき）</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:endParaRPr>
           </a:p>
           <a:p>
             <a:r>
@@ -1085,15 +1058,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -1108,9 +1081,9 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13430250" y="1181100"/>
+          <a:off x="13325475" y="6362700"/>
           <a:ext cx="3848100" cy="1619250"/>
-          <a:chOff x="12887325" y="228600"/>
+          <a:chOff x="12782550" y="5410200"/>
           <a:chExt cx="3848100" cy="1619250"/>
         </a:xfrm>
       </xdr:grpSpPr>
@@ -1127,9 +1100,9 @@
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
           <a:xfrm>
-            <a:off x="12887325" y="476250"/>
+            <a:off x="12782550" y="5657850"/>
             <a:ext cx="3848100" cy="1371600"/>
-            <a:chOff x="8562975" y="1333500"/>
+            <a:chOff x="8458200" y="6515100"/>
             <a:chExt cx="3848100" cy="1371600"/>
           </a:xfrm>
         </xdr:grpSpPr>
@@ -1146,7 +1119,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="9220201" y="1333500"/>
+              <a:off x="9115426" y="6515100"/>
               <a:ext cx="3190874" cy="1371600"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -1230,7 +1203,7 @@
           </xdr:nvCxnSpPr>
           <xdr:spPr>
             <a:xfrm flipH="1">
-              <a:off x="8562975" y="2019300"/>
+              <a:off x="8458200" y="7200900"/>
               <a:ext cx="657226" cy="333375"/>
             </a:xfrm>
             <a:prstGeom prst="straightConnector1">
@@ -1271,7 +1244,7 @@
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm flipH="1">
-            <a:off x="15139988" y="228600"/>
+            <a:off x="15035213" y="5410200"/>
             <a:ext cx="385762" cy="247650"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
@@ -1302,15 +1275,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -1325,9 +1298,9 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13582650" y="1333500"/>
+          <a:off x="13401675" y="4391025"/>
           <a:ext cx="3848100" cy="1619250"/>
-          <a:chOff x="12887325" y="228600"/>
+          <a:chOff x="12706350" y="3286125"/>
           <a:chExt cx="3848100" cy="1619250"/>
         </a:xfrm>
       </xdr:grpSpPr>
@@ -1344,9 +1317,9 @@
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
           <a:xfrm>
-            <a:off x="12887325" y="476250"/>
+            <a:off x="12706350" y="3533775"/>
             <a:ext cx="3848100" cy="1371600"/>
-            <a:chOff x="8562975" y="1333500"/>
+            <a:chOff x="8382000" y="4391025"/>
             <a:chExt cx="3848100" cy="1371600"/>
           </a:xfrm>
         </xdr:grpSpPr>
@@ -1363,7 +1336,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="9220201" y="1333500"/>
+              <a:off x="9039226" y="4391025"/>
               <a:ext cx="3190874" cy="1371600"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -1447,7 +1420,7 @@
           </xdr:nvCxnSpPr>
           <xdr:spPr>
             <a:xfrm flipH="1">
-              <a:off x="8562975" y="2019300"/>
+              <a:off x="8382000" y="5076825"/>
               <a:ext cx="657226" cy="333375"/>
             </a:xfrm>
             <a:prstGeom prst="straightConnector1">
@@ -1488,7 +1461,7 @@
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm flipH="1">
-            <a:off x="15139988" y="228600"/>
+            <a:off x="14959013" y="3286125"/>
             <a:ext cx="385762" cy="247650"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
@@ -1518,16 +1491,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -1542,9 +1515,9 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13735050" y="1485900"/>
+          <a:off x="13496925" y="2790825"/>
           <a:ext cx="3848100" cy="1619250"/>
-          <a:chOff x="12887325" y="228600"/>
+          <a:chOff x="12649200" y="1533525"/>
           <a:chExt cx="3848100" cy="1619250"/>
         </a:xfrm>
       </xdr:grpSpPr>
@@ -1561,9 +1534,9 @@
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
           <a:xfrm>
-            <a:off x="12887325" y="476250"/>
+            <a:off x="12649200" y="1781175"/>
             <a:ext cx="3848100" cy="1371600"/>
-            <a:chOff x="8562975" y="1333500"/>
+            <a:chOff x="8324850" y="2638425"/>
             <a:chExt cx="3848100" cy="1371600"/>
           </a:xfrm>
         </xdr:grpSpPr>
@@ -1580,7 +1553,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="9220201" y="1333500"/>
+              <a:off x="8982076" y="2638425"/>
               <a:ext cx="3190874" cy="1371600"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -1664,7 +1637,7 @@
           </xdr:nvCxnSpPr>
           <xdr:spPr>
             <a:xfrm flipH="1">
-              <a:off x="8562975" y="2019300"/>
+              <a:off x="8324850" y="3324225"/>
               <a:ext cx="657226" cy="333375"/>
             </a:xfrm>
             <a:prstGeom prst="straightConnector1">
@@ -1705,7 +1678,7 @@
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm flipH="1">
-            <a:off x="15139988" y="228600"/>
+            <a:off x="14901863" y="1533525"/>
             <a:ext cx="385762" cy="247650"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
@@ -1843,6 +1816,279 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>285751</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="テキスト ボックス 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C6C0E4A-3D4B-4DBE-922D-CF06DAE23BEC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7143751" y="5372100"/>
+          <a:ext cx="3724274" cy="1466850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>DatapathManager</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>---------------------------------------------------------------</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>CSV</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ファイル作成先の設定、保存</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="49" name="グループ化 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{263D1C99-77CC-4343-B7F6-1B9FE51A3067}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5905500" y="7048500"/>
+          <a:ext cx="4486275" cy="1495425"/>
+          <a:chOff x="8562975" y="1333500"/>
+          <a:chExt cx="3848100" cy="1371600"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="50" name="テキスト ボックス 49">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9DEE743-33A9-44C3-9203-1C6D10B8CDFF}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9220201" y="1333500"/>
+            <a:ext cx="3190874" cy="1371600"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>UIbuttonManager</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>---------------------------------------------------------------</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>・</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>UI</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>のうちオブジェクト配置用のボタンの作成</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>・</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="51" name="直線矢印コネクタ 50">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E696C763-49A0-45F0-AC7D-5501BFDD9242}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="50" idx="1"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="8562975" y="2019300"/>
+            <a:ext cx="657226" cy="333375"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2148,7 +2394,7 @@
   <dimension ref="C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
